--- a/douban/豆瓣电影Top250.xlsx
+++ b/douban/豆瓣电影Top250.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2980007人评价</t>
+          <t>2980829人评价</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2201900人评价</t>
+          <t>2202500人评价</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2220729人评价</t>
+          <t>2221234人评价</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2257416人评价</t>
+          <t>2258020人评价</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2351571人评价</t>
+          <t>2352142人评价</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2303866人评价</t>
+          <t>2304422人评价</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1360600人评价</t>
+          <t>1360929人评价</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1915520人评价</t>
+          <t>1916198人评价</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2124331人评价</t>
+          <t>2124894人评价</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1149523人评价</t>
+          <t>1149757人评价</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1774872人评价</t>
+          <t>1775487人评价</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1429717人评价</t>
+          <t>1430007人评价</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1720035人评价</t>
+          <t>1720448人评价</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1906158人评价</t>
+          <t>1906593人评价</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1348821人评价</t>
+          <t>1349174人评价</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1352548人评价</t>
+          <t>1352894人评价</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2008488人评价</t>
+          <t>2009120人评价</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1408343人评价</t>
+          <t>1408766人评价</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>594150人评价</t>
+          <t>594531人评价</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1572401人评价</t>
+          <t>1572750人评价</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>955890人评价</t>
+          <t>956115人评价</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>997873人评价</t>
+          <t>998172人评价</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1155961人评价</t>
+          <t>1156343人评价</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1558467人评价</t>
+          <t>1558790人评价</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1744101人评价</t>
+          <t>1744659人评价</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>917782人评价</t>
+          <t>918086人评价</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1298722人评价</t>
+          <t>1299014人评价</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1882242人评价</t>
+          <t>1882663人评价</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>874640人评价</t>
+          <t>874957人评价</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1237365人评价</t>
+          <t>1237841人评价</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1092781人评价</t>
+          <t>1093034人评价</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>827599人评价</t>
+          <t>827831人评价</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2160461人评价</t>
+          <t>2160958人评价</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>712064人评价</t>
+          <t>712229人评价</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1365304人评价</t>
+          <t>1365686人评价</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>707607人评价</t>
+          <t>707788人评价</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>509875人评价</t>
+          <t>510053人评价</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1059303人评价</t>
+          <t>1059737人评价</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1748081人评价</t>
+          <t>1748509人评价</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1073574人评价</t>
+          <t>1073855人评价</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1607892人评价</t>
+          <t>1608274人评价</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1067103人评价</t>
+          <t>1067513人评价</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>905576人评价</t>
+          <t>905871人评价</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>645807人评价</t>
+          <t>645992人评价</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>651084人评价</t>
+          <t>651427人评价</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1381725人评价</t>
+          <t>1382049人评价</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>665343人评价</t>
+          <t>665606人评价</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1252275人评价</t>
+          <t>1252538人评价</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>776772人评价</t>
+          <t>777013人评价</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>917392人评价</t>
+          <t>917668人评价</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>756821人评价</t>
+          <t>757133人评价</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1702378人评价</t>
+          <t>1702900人评价</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>972793人评价</t>
+          <t>972961人评价</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>453959人评价</t>
+          <t>454131人评价</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>693386人评价</t>
+          <t>693505人评价</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>872414人评价</t>
+          <t>872654人评价</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>860874人评价</t>
+          <t>861100人评价</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>571143人评价</t>
+          <t>571312人评价</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>870803人评价</t>
+          <t>871050人评价</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>603629人评价</t>
+          <t>603771人评价</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>641436人评价</t>
+          <t>641623人评价</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>871458人评价</t>
+          <t>871682人评价</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1012067人评价</t>
+          <t>1012324人评价</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>789626人评价</t>
+          <t>789838人评价</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>584308人评价</t>
+          <t>584490人评价</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>580086人评价</t>
+          <t>580265人评价</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1153803人评价</t>
+          <t>1154201人评价</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>611777人评价</t>
+          <t>611981人评价</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1002792人评价</t>
+          <t>1003070人评价</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>620822人评价</t>
+          <t>621020人评价</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1310627人评价</t>
+          <t>1311006人评价</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1458064人评价</t>
+          <t>1458371人评价</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>860676人评价</t>
+          <t>860961人评价</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>664752人评价</t>
+          <t>664919人评价</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>560476人评价</t>
+          <t>560593人评价</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>422795人评价</t>
+          <t>422885人评价</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>918108人评价</t>
+          <t>918388人评价</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1178001人评价</t>
+          <t>1178398人评价</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>973152人评价</t>
+          <t>973510人评价</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1009069人评价</t>
+          <t>1009347人评价</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>966416人评价</t>
+          <t>966678人评价</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>885284人评价</t>
+          <t>885533人评价</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>762688人评价</t>
+          <t>763041人评价</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>738525人评价</t>
+          <t>738746人评价</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>629744人评价</t>
+          <t>630014人评价</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>860423人评价</t>
+          <t>860672人评价</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>363326人评价</t>
+          <t>363387人评价</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>311811人评价</t>
+          <t>311922人评价</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>650931人评价</t>
+          <t>651105人评价</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>424049人评价</t>
+          <t>424155人评价</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>997147人评价</t>
+          <t>997371人评价</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>852781人评价</t>
+          <t>853049人评价</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>741844人评价</t>
+          <t>742081人评价</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>486125人评价</t>
+          <t>486306人评价</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>789852人评价</t>
+          <t>790186人评价</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>966374人评价</t>
+          <t>966566人评价</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>884798人评价</t>
+          <t>885040人评价</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>413645人评价</t>
+          <t>413814人评价</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>407384人评价</t>
+          <t>407544人评价</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1112533人评价</t>
+          <t>1112824人评价</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>572729人评价</t>
+          <t>572857人评价</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>719927人评价</t>
+          <t>720077人评价</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>744401人评价</t>
+          <t>744565人评价</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>744547人评价</t>
+          <t>744773人评价</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>708494人评价</t>
+          <t>708730人评价</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>723039人评价</t>
+          <t>723229人评价</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1056920人评价</t>
+          <t>1057140人评价</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>686023人评价</t>
+          <t>686203人评价</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>573297人评价</t>
+          <t>573439人评价</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>837445人评价</t>
+          <t>837695人评价</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>579598人评价</t>
+          <t>579877人评价</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1045937人评价</t>
+          <t>1046243人评价</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>568936人评价</t>
+          <t>569025人评价</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>538691人评价</t>
+          <t>538854人评价</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>581988人评价</t>
+          <t>582174人评价</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>612807人评价</t>
+          <t>612961人评价</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1410442人评价</t>
+          <t>1410838人评价</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>570285人评价</t>
+          <t>570438人评价</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>984612人评价</t>
+          <t>984858人评价</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>630537人评价</t>
+          <t>630690人评价</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>331359人评价</t>
+          <t>331522人评价</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>325171人评价</t>
+          <t>325274人评价</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>969532人评价</t>
+          <t>969642人评价</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>757002人评价</t>
+          <t>757164人评价</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>436048人评价</t>
+          <t>436151人评价</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>700998人评价</t>
+          <t>701234人评价</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>354370人评价</t>
+          <t>354541人评价</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>689417人评价</t>
+          <t>689690人评价</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>476203人评价</t>
+          <t>476349人评价</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>777975人评价</t>
+          <t>778200人评价</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>588490人评价</t>
+          <t>588635人评价</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>502691人评价</t>
+          <t>502879人评价</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>388736人评价</t>
+          <t>388843人评价</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>387085人评价</t>
+          <t>387230人评价</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>696489人评价</t>
+          <t>696735人评价</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>535842人评价</t>
+          <t>536017人评价</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>828019人评价</t>
+          <t>828260人评价</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>457260人评价</t>
+          <t>457425人评价</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>556230人评价</t>
+          <t>556395人评价</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>159705人评价</t>
+          <t>159841人评价</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>627139人评价</t>
+          <t>627296人评价</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1233640人评价</t>
+          <t>1233950人评价</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>969833人评价</t>
+          <t>970060人评价</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>687146人评价</t>
+          <t>687283人评价</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>845488人评价</t>
+          <t>845810人评价</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>268299人评价</t>
+          <t>268378人评价</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>428928人评价</t>
+          <t>429004人评价</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>706148人评价</t>
+          <t>706436人评价</t>
         </is>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>582434人评价</t>
+          <t>582582人评价</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>377580人评价</t>
+          <t>377734人评价</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>665685人评价</t>
+          <t>665870人评价</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1401241人评价</t>
+          <t>1401548人评价</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>632802人评价</t>
+          <t>633047人评价</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>656583人评价</t>
+          <t>656771人评价</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>638841人评价</t>
+          <t>639106人评价</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>347424人评价</t>
+          <t>347511人评价</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>600773人评价</t>
+          <t>600857人评价</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>204945人评价</t>
+          <t>205021人评价</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>800142人评价</t>
+          <t>800280人评价</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>670609人评价</t>
+          <t>670752人评价</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>308568人评价</t>
+          <t>308714人评价</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>458301人评价</t>
+          <t>458405人评价</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1445723人评价</t>
+          <t>1446085人评价</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>843818人评价</t>
+          <t>844030人评价</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>552603人评价</t>
+          <t>552741人评价</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>464432人评价</t>
+          <t>464528人评价</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>542907人评价</t>
+          <t>543124人评价</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>858918人评价</t>
+          <t>859114人评价</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>430209人评价</t>
+          <t>430311人评价</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>556562人评价</t>
+          <t>556673人评价</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>307847人评价</t>
+          <t>307887人评价</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>362756人评价</t>
+          <t>362850人评价</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>418265人评价</t>
+          <t>418416人评价</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>344259人评价</t>
+          <t>344408人评价</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>463791人评价</t>
+          <t>463942人评价</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>437728人评价</t>
+          <t>437817人评价</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1034992人评价</t>
+          <t>1035252人评价</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>338896人评价</t>
+          <t>338976人评价</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>142974人评价</t>
+          <t>143055人评价</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>619685人评价</t>
+          <t>619850人评价</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1017840人评价</t>
+          <t>1018143人评价</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>846941人评价</t>
+          <t>847174人评价</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>235127人评价</t>
+          <t>235224人评价</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>344281人评价</t>
+          <t>344440人评价</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>497047人评价</t>
+          <t>497187人评价</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>583485人评价</t>
+          <t>583556人评价</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>201213人评价</t>
+          <t>201271人评价</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>831441人评价</t>
+          <t>831661人评价</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>558150人评价</t>
+          <t>558352人评价</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>455382人评价</t>
+          <t>455481人评价</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>606805人评价</t>
+          <t>606979人评价</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>633128人评价</t>
+          <t>633317人评价</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>893122人评价</t>
+          <t>893402人评价</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>313895人评价</t>
+          <t>314015人评价</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>760441人评价</t>
+          <t>760585人评价</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>244197人评价</t>
+          <t>244327人评价</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>590373人评价</t>
+          <t>590502人评价</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>473037人评价</t>
+          <t>473155人评价</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>479162人评价</t>
+          <t>479334人评价</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>478118人评价</t>
+          <t>478316人评价</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>342519人评价</t>
+          <t>342612人评价</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>312218人评价</t>
+          <t>312296人评价</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>796236人评价</t>
+          <t>796376人评价</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>152614人评价</t>
+          <t>152691人评价</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>855054人评价</t>
+          <t>855254人评价</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>754411人评价</t>
+          <t>754588人评价</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>567399人评价</t>
+          <t>567703人评价</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>274374人评价</t>
+          <t>274541人评价</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>624592人评价</t>
+          <t>624792人评价</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>413085人评价</t>
+          <t>413177人评价</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>996345人评价</t>
+          <t>996490人评价</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>541728人评价</t>
+          <t>541879人评价</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>458881人评价</t>
+          <t>459004人评价</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>689763人评价</t>
+          <t>689949人评价</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>265887人评价</t>
+          <t>265965人评价</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>969513人评价</t>
+          <t>970037人评价</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>350536人评价</t>
+          <t>350627人评价</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>545865人评价</t>
+          <t>546019人评价</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>324374人评价</t>
+          <t>324464人评价</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>458125人评价</t>
+          <t>458219人评价</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>150313人评价</t>
+          <t>150417人评价</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>494611人评价</t>
+          <t>494752人评价</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>311036人评价</t>
+          <t>311154人评价</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>515077人评价</t>
+          <t>515217人评价</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>666134人评价</t>
+          <t>666556人评价</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>412117人评价</t>
+          <t>412187人评价</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>603325人评价</t>
+          <t>603593人评价</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>600705人评价</t>
+          <t>600953人评价</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>562956人评价</t>
+          <t>563054人评价</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>416987人评价</t>
+          <t>417097人评价</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>297386人评价</t>
+          <t>297440人评价</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>754278人评价</t>
+          <t>754522人评价</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>390284人评价</t>
+          <t>390374人评价</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>379173人评价</t>
+          <t>379256人评价</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>288377人评价</t>
+          <t>288471人评价</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>517632人评价</t>
+          <t>517986人评价</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>375440人评价</t>
+          <t>375522人评价</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>286215人评价</t>
+          <t>286285人评价</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>279622人评价</t>
+          <t>279751人评价</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>99443人评价</t>
+          <t>99556人评价</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>363263人评价</t>
+          <t>363358人评价</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>595657人评价</t>
+          <t>595929人评价</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>689133人评价</t>
+          <t>689354人评价</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>320996人评价</t>
+          <t>321115人评价</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>292891人评价</t>
+          <t>293096人评价</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>440937人评价</t>
+          <t>441048人评价</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>525619人评价</t>
+          <t>525737人评价</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>461865人评价</t>
+          <t>461945人评价</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>437885人评价</t>
+          <t>437955人评价</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>294216人评价</t>
+          <t>294288人评价</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">

--- a/douban/豆瓣电影Top250.xlsx
+++ b/douban/豆瓣电影Top250.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2980829人评价</t>
+          <t>2980839人评价</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2202500人评价</t>
+          <t>2202506人评价</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2221234人评价</t>
+          <t>2221283人评价</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2258020人评价</t>
+          <t>2258039人评价</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2352142人评价</t>
+          <t>2352165人评价</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2304422人评价</t>
+          <t>2304432人评价</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1360929人评价</t>
+          <t>1360938人评价</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1916198人评价</t>
+          <t>1916199人评价</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2124894人评价</t>
+          <t>2124899人评价</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1149757人评价</t>
+          <t>1149762人评价</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1775487人评价</t>
+          <t>1775499人评价</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1430007人评价</t>
+          <t>1430009人评价</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1720448人评价</t>
+          <t>1720449人评价</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1906593人评价</t>
+          <t>1906603人评价</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1349174人评价</t>
+          <t>1349182人评价</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1352894人评价</t>
+          <t>1352899人评价</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2009120人评价</t>
+          <t>2009130人评价</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1408766人评价</t>
+          <t>1408787人评价</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1572750人评价</t>
+          <t>1572756人评价</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>956115人评价</t>
+          <t>956118人评价</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>998172人评价</t>
+          <t>998180人评价</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1156343人评价</t>
+          <t>1156354人评价</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1558790人评价</t>
+          <t>1558795人评价</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1744659人评价</t>
+          <t>1744669人评价</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>918086人评价</t>
+          <t>918096人评价</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1299014人评价</t>
+          <t>1299019人评价</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>874957人评价</t>
+          <t>874973人评价</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1237841人评价</t>
+          <t>1237846人评价</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>827831人评价</t>
+          <t>827835人评价</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2160958人评价</t>
+          <t>2160970人评价</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1365686人评价</t>
+          <t>1365709人评价</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>707788人评价</t>
+          <t>707789人评价</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>510053人评价</t>
+          <t>510056人评价</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1059737人评价</t>
+          <t>1059744人评价</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1748509人评价</t>
+          <t>1748513人评价</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1608274人评价</t>
+          <t>1608277人评价</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1067513人评价</t>
+          <t>1067522人评价</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>905871人评价</t>
+          <t>905874人评价</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>645992人评价</t>
+          <t>646004人评价</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>651427人评价</t>
+          <t>651436人评价</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1382049人评价</t>
+          <t>1382057人评价</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>665606人评价</t>
+          <t>665612人评价</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1252538人评价</t>
+          <t>1252543人评价</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>777013人评价</t>
+          <t>777016人评价</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>917668人评价</t>
+          <t>917677人评价</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>757133人评价</t>
+          <t>757137人评价</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1702900人评价</t>
+          <t>1702908人评价</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>972961人评价</t>
+          <t>972968人评价</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>454131人评价</t>
+          <t>454134人评价</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>693505人评价</t>
+          <t>693509人评价</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>872654人评价</t>
+          <t>872656人评价</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>861100人评价</t>
+          <t>861105人评价</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>571312人评价</t>
+          <t>571316人评价</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>641623人评价</t>
+          <t>641624人评价</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>871682人评价</t>
+          <t>871687人评价</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1012324人评价</t>
+          <t>1012327人评价</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>789838人评价</t>
+          <t>789839人评价</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>584490人评价</t>
+          <t>584495人评价</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>580265人评价</t>
+          <t>580267人评价</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1154201人评价</t>
+          <t>1154225人评价</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>611981人评价</t>
+          <t>611984人评价</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>621020人评价</t>
+          <t>621023人评价</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1311006人评价</t>
+          <t>1311010人评价</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>860961人评价</t>
+          <t>860969人评价</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>664919人评价</t>
+          <t>664920人评价</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>422885人评价</t>
+          <t>422891人评价</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>918388人评价</t>
+          <t>918395人评价</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1178398人评价</t>
+          <t>1178404人评价</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>973510人评价</t>
+          <t>973515人评价</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1009347人评价</t>
+          <t>1009351人评价</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>966678人评价</t>
+          <t>966682人评价</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>885533人评价</t>
+          <t>885537人评价</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>738746人评价</t>
+          <t>738754人评价</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>630014人评价</t>
+          <t>630017人评价</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>860672人评价</t>
+          <t>860674人评价</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>311922人评价</t>
+          <t>311925人评价</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>651105人评价</t>
+          <t>651106人评价</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>997371人评价</t>
+          <t>997376人评价</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>853049人评价</t>
+          <t>853052人评价</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>742081人评价</t>
+          <t>742086人评价</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>486306人评价</t>
+          <t>486319人评价</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>790186人评价</t>
+          <t>790197人评价</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>966566人评价</t>
+          <t>966581人评价</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>885040人评价</t>
+          <t>885043人评价</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>407544人评价</t>
+          <t>407543人评价</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1112824人评价</t>
+          <t>1112831人评价</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>572857人评价</t>
+          <t>572859人评价</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>720077人评价</t>
+          <t>720085人评价</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>744565人评价</t>
+          <t>744568人评价</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>744773人评价</t>
+          <t>744779人评价</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>708730人评价</t>
+          <t>708737人评价</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>723229人评价</t>
+          <t>723232人评价</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1057140人评价</t>
+          <t>1057147人评价</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>686203人评价</t>
+          <t>686204人评价</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>573439人评价</t>
+          <t>573443人评价</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>837695人评价</t>
+          <t>837702人评价</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>579877人评价</t>
+          <t>579883人评价</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1046243人评价</t>
+          <t>1046249人评价</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>582174人评价</t>
+          <t>582177人评价</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1410838人评价</t>
+          <t>1410871人评价</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>570438人评价</t>
+          <t>570441人评价</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>984858人评价</t>
+          <t>984875人评价</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>331522人评价</t>
+          <t>331524人评价</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>325274人评价</t>
+          <t>325281人评价</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>969642人评价</t>
+          <t>969643人评价</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>757164人评价</t>
+          <t>757167人评价</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>436151人评价</t>
+          <t>436153人评价</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>701234人评价</t>
+          <t>701239人评价</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>354541人评价</t>
+          <t>354546人评价</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>689690人评价</t>
+          <t>689694人评价</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>476349人评价</t>
+          <t>476351人评价</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>778200人评价</t>
+          <t>778206人评价</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>588635人评价</t>
+          <t>588637人评价</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>502879人评价</t>
+          <t>502880人评价</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>388843人评价</t>
+          <t>388845人评价</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>387230人评价</t>
+          <t>387232人评价</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>696735人评价</t>
+          <t>696737人评价</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>536017人评价</t>
+          <t>536018人评价</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>828260人评价</t>
+          <t>828261人评价</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>457425人评价</t>
+          <t>457426人评价</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>159841人评价</t>
+          <t>159844人评价</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>627296人评价</t>
+          <t>627301人评价</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1233950人评价</t>
+          <t>1233962人评价</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>970060人评价</t>
+          <t>970063人评价</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>687283人评价</t>
+          <t>687285人评价</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>845810人评价</t>
+          <t>845818人评价</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>268378人评价</t>
+          <t>268380人评价</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>429004人评价</t>
+          <t>429007人评价</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>706436人评价</t>
+          <t>706440人评价</t>
         </is>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>582582人评价</t>
+          <t>582583人评价</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>377734人评价</t>
+          <t>377735人评价</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>665870人评价</t>
+          <t>665871人评价</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1401548人评价</t>
+          <t>1401553人评价</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>633047人评价</t>
+          <t>633048人评价</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>656771人评价</t>
+          <t>656775人评价</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>639106人评价</t>
+          <t>639114人评价</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>347511人评价</t>
+          <t>347513人评价</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>600857人评价</t>
+          <t>600858人评价</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>800280人评价</t>
+          <t>800281人评价</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>670752人评价</t>
+          <t>670755人评价</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>308714人评价</t>
+          <t>308716人评价</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>458405人评价</t>
+          <t>458406人评价</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1446085人评价</t>
+          <t>1446087人评价</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>844030人评价</t>
+          <t>844034人评价</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>464528人评价</t>
+          <t>464529人评价</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>543124人评价</t>
+          <t>543126人评价</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>859114人评价</t>
+          <t>859116人评价</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>430311人评价</t>
+          <t>430313人评价</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>307887人评价</t>
+          <t>307888人评价</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>418416人评价</t>
+          <t>418418人评价</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>463942人评价</t>
+          <t>463946人评价</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1035252人评价</t>
+          <t>1035258人评价</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>338976人评价</t>
+          <t>338977人评价</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>619850人评价</t>
+          <t>619852人评价</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1018143人评价</t>
+          <t>1018156人评价</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>847174人评价</t>
+          <t>847189人评价</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>235224人评价</t>
+          <t>235230人评价</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>344440人评价</t>
+          <t>344442人评价</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>497187人评价</t>
+          <t>497192人评价</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>583556人评价</t>
+          <t>583557人评价</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>201271人评价</t>
+          <t>201274人评价</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>558352人评价</t>
+          <t>558354人评价</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>455481人评价</t>
+          <t>455482人评价</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>606979人评价</t>
+          <t>606985人评价</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>633317人评价</t>
+          <t>633320人评价</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>893402人评价</t>
+          <t>893405人评价</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>314015人评价</t>
+          <t>314017人评价</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>760585人评价</t>
+          <t>760586人评价</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>244327人评价</t>
+          <t>244330人评价</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>473155人评价</t>
+          <t>473156人评价</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>479334人评价</t>
+          <t>479336人评价</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>478316人评价</t>
+          <t>478318人评价</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>342612人评价</t>
+          <t>342615人评价</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>152691人评价</t>
+          <t>152692人评价</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>855254人评价</t>
+          <t>855258人评价</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>754588人评价</t>
+          <t>754593人评价</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>567703人评价</t>
+          <t>567708人评价</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>274541人评价</t>
+          <t>274543人评价</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>624792人评价</t>
+          <t>624795人评价</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>996490人评价</t>
+          <t>996492人评价</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>541879人评价</t>
+          <t>541880人评价</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>689949人评价</t>
+          <t>689952人评价</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>265965人评价</t>
+          <t>265969人评价</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>350627人评价</t>
+          <t>350630人评价</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>546019人评价</t>
+          <t>546022人评价</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>324464人评价</t>
+          <t>324471人评价</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>458219人评价</t>
+          <t>458221人评价</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>150417人评价</t>
+          <t>150422人评价</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>494752人评价</t>
+          <t>494757人评价</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>666556人评价</t>
+          <t>666568人评价</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>603593人评价</t>
+          <t>603597人评价</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>600953人评价</t>
+          <t>600958人评价</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>417097人评价</t>
+          <t>417098人评价</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>754522人评价</t>
+          <t>754526人评价</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>390374人评价</t>
+          <t>390376人评价</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>379256人评价</t>
+          <t>379258人评价</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>288471人评价</t>
+          <t>288474人评价</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>517986人评价</t>
+          <t>517995人评价</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>375522人评价</t>
+          <t>375523人评价</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>279751人评价</t>
+          <t>279753人评价</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>99556人评价</t>
+          <t>99560人评价</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>363358人评价</t>
+          <t>363359人评价</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>595929人评价</t>
+          <t>595932人评价</t>
         </is>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>689354人评价</t>
+          <t>689355人评价</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>321115人评价</t>
+          <t>321117人评价</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>293096人评价</t>
+          <t>293101人评价</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>441048人评价</t>
+          <t>441051人评价</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
